--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -156,19 +156,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>何瑞君</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>【房东APP】首页和登陆页添加regId信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】登录页问题修改</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -212,14 +200,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>为了迎合样式，使用的插件导致兼容性问题，无法记住密码。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵良智</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>新产品需求，短信内增加单元字段显示，需要后端修改代码。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -229,6 +209,22 @@
   </si>
   <si>
     <t>【房东APP】【房东PC】业主应付实付统计问题修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智、郑良杰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -957,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T203"/>
+  <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1050,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>19</v>
@@ -1083,7 +1079,7 @@
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
       <c r="S2" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="37"/>
     </row>
@@ -1092,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>19</v>
@@ -1109,9 +1105,11 @@
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="33"/>
+      <c r="J3" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="K3" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>43</v>
@@ -1123,7 +1121,7 @@
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
       <c r="S3" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T3" s="37"/>
     </row>
@@ -1132,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>19</v>
@@ -1150,13 +1148,13 @@
       <c r="H4" s="30"/>
       <c r="I4" s="24"/>
       <c r="J4" s="33" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M4" s="33"/>
       <c r="N4" s="30"/>
@@ -1165,7 +1163,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T4" s="37"/>
     </row>
@@ -1174,13 +1172,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>19</v>
@@ -1191,12 +1189,14 @@
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="K5" s="24" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="30"/>
@@ -1205,53 +1205,35 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T5" s="37"/>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="24"/>
       <c r="J6" s="33"/>
-      <c r="K6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>52</v>
-      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="33"/>
       <c r="N6" s="30"/>
       <c r="O6" s="33"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
-      <c r="S6" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="S6" s="38"/>
       <c r="T6" s="37"/>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1432,7 +1414,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="30"/>
       <c r="I15" s="24"/>
       <c r="J15" s="33"/>
@@ -1498,7 +1480,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="24"/>
       <c r="J18" s="33"/>
@@ -2086,25 +2068,25 @@
       <c r="T44" s="37"/>
     </row>
     <row r="45" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="33"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="28"/>
-      <c r="S45" s="38"/>
+      <c r="S45" s="27"/>
       <c r="T45" s="37"/>
     </row>
     <row r="46" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2129,27 +2111,26 @@
       <c r="S46" s="27"/>
       <c r="T46" s="37"/>
     </row>
-    <row r="47" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="27"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="29"/>
       <c r="P47" s="28"/>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="37"/>
+      <c r="S47" s="29"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
@@ -3290,7 +3271,7 @@
       <c r="B102" s="29"/>
       <c r="C102" s="28"/>
       <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+      <c r="E102" s="28"/>
       <c r="F102" s="32"/>
       <c r="G102" s="28"/>
       <c r="H102" s="32"/>
@@ -3411,11 +3392,11 @@
       <c r="R107" s="28"/>
       <c r="S107" s="29"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="28"/>
       <c r="B108" s="29"/>
       <c r="C108" s="28"/>
-      <c r="D108" s="24"/>
+      <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="32"/>
       <c r="G108" s="28"/>
@@ -4687,9 +4668,6 @@
       <c r="M168" s="28"/>
       <c r="N168" s="32"/>
       <c r="O168" s="29"/>
-      <c r="P168" s="28"/>
-      <c r="Q168" s="28"/>
-      <c r="R168" s="28"/>
       <c r="S168" s="29"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
@@ -5303,24 +5281,6 @@
       <c r="N202" s="32"/>
       <c r="O202" s="29"/>
       <c r="S202" s="29"/>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A203" s="28"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="35"/>
-      <c r="J203" s="28"/>
-      <c r="K203" s="28"/>
-      <c r="L203" s="28"/>
-      <c r="M203" s="28"/>
-      <c r="N203" s="32"/>
-      <c r="O203" s="29"/>
-      <c r="S203" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -184,47 +179,78 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>之前逻辑是存在判断此设备是否存在，如果不存在就增加，存在就不更新，导致用户后期打开允许推送功能，也无法推送消息。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>当推送消息无法推送，站内信也无法查询，后端修改代码逻辑。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前统计应付实付没有把失效状态账单排查，后端需要修改对应代码。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品需求，短信内增加单元字段显示，需要后端修改代码。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】【房东PC】推送和站内信消息分离</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】【房东PC】业主应付实付统计问题修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智、郑良杰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
     <t>【房东PC】业主催收短信修改（修改查询语句）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>之前逻辑是存在判断此设备是否存在，如果不存在就增加，存在就不更新，导致用户后期打开允许推送功能，也无法推送消息。</t>
+    <t>【房东PC】蘑菇伙伴服务号,关注之后的欢迎词</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>当推送消息无法推送，站内信也无法查询，后端修改代码逻辑。</t>
+    <t>房东PC、房东APP</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>之前统计应付实付没有把失效状态账单排查，后端需要修改对应代码。</t>
+    <t>吕崇新</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>新产品需求，短信内增加单元字段显示，需要后端修改代码。</t>
+    <t>Pass</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>【房东APP】【房东PC】推送和站内信消息分离</t>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>【房东APP】【房东PC】业主应付实付统计问题修改</t>
+    <t>待修复</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵良智、郑良杰</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵良智</t>
+    <t>当从不允许接收推送改为允许后，不杀掉进程，再进App，regId不会写入，</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -955,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1064,7 +1090,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="24"/>
       <c r="J2" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>20</v>
@@ -1072,14 +1098,18 @@
       <c r="L2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="O2" s="33"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
       <c r="S2" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" s="37"/>
     </row>
@@ -1088,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>19</v>
@@ -1106,7 +1136,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="24"/>
       <c r="J3" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>48</v>
@@ -1114,14 +1144,20 @@
       <c r="L3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="33"/>
+      <c r="M3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="30">
+        <v>42576</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
       <c r="S3" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" s="37"/>
     </row>
@@ -1130,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>21</v>
@@ -1148,7 +1184,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="24"/>
       <c r="J4" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>48</v>
@@ -1156,14 +1192,20 @@
       <c r="L4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="33"/>
+      <c r="M4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="30">
+        <v>42576</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" s="37"/>
     </row>
@@ -1172,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>46</v>
@@ -1190,7 +1232,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="24"/>
       <c r="J5" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>20</v>
@@ -1198,33 +1240,63 @@
       <c r="L5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="33"/>
+      <c r="M5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="30">
+        <v>42576</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" s="37"/>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="30">
+        <v>42576</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_发现组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -151,14 +151,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>【房东APP】首页和登陆页添加regId信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -176,10 +168,6 @@
   </si>
   <si>
     <t>房东PC、房东APP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前逻辑是存在判断此设备是否存在，如果不存在就增加，存在就不更新，导致用户后期打开允许推送功能，也无法推送消息。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -204,10 +192,6 @@
   </si>
   <si>
     <t>苏玉军</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵良智、郑良杰</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -243,14 +227,6 @@
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>待修复</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>当从不允许接收推送改为允许后，不杀掉进程，再进App，regId不会写入，</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T202"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,18 +1043,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>19</v>
@@ -1090,26 +1066,28 @@
       <c r="H2" s="30"/>
       <c r="I2" s="24"/>
       <c r="J2" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="N2" s="30">
+        <v>42576</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
       <c r="S2" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T2" s="37"/>
     </row>
@@ -1118,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>19</v>
@@ -1136,28 +1114,28 @@
       <c r="H3" s="30"/>
       <c r="I3" s="24"/>
       <c r="J3" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N3" s="30">
         <v>42576</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+        <v>63</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
       <c r="S3" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T3" s="37"/>
     </row>
@@ -1166,13 +1144,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>19</v>
@@ -1184,28 +1162,28 @@
       <c r="H4" s="30"/>
       <c r="I4" s="24"/>
       <c r="J4" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N4" s="30">
         <v>42576</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T4" s="37"/>
     </row>
@@ -1214,13 +1192,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>19</v>
@@ -1232,71 +1210,44 @@
       <c r="H5" s="30"/>
       <c r="I5" s="24"/>
       <c r="J5" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N5" s="30">
         <v>42576</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
-      <c r="S5" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="S5" s="38"/>
       <c r="T5" s="37"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>19</v>
-      </c>
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="30">
-        <v>42576</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>67</v>
-      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
@@ -1464,7 +1415,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="30"/>
       <c r="I14" s="24"/>
       <c r="J14" s="33"/>
@@ -1530,7 +1481,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="24"/>
       <c r="J17" s="33"/>
@@ -2118,25 +2069,25 @@
       <c r="T43" s="37"/>
     </row>
     <row r="44" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="33"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="27"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
-      <c r="S44" s="38"/>
+      <c r="S44" s="27"/>
       <c r="T44" s="37"/>
     </row>
     <row r="45" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2161,27 +2112,26 @@
       <c r="S45" s="27"/>
       <c r="T45" s="37"/>
     </row>
-    <row r="46" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="27"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="29"/>
       <c r="P46" s="28"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="37"/>
+      <c r="S46" s="29"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
@@ -3322,7 +3272,7 @@
       <c r="B101" s="29"/>
       <c r="C101" s="28"/>
       <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="E101" s="28"/>
       <c r="F101" s="32"/>
       <c r="G101" s="28"/>
       <c r="H101" s="32"/>
@@ -3443,11 +3393,11 @@
       <c r="R106" s="28"/>
       <c r="S106" s="29"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="28"/>
       <c r="B107" s="29"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="24"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="32"/>
       <c r="G107" s="28"/>
@@ -4719,9 +4669,6 @@
       <c r="M167" s="28"/>
       <c r="N167" s="32"/>
       <c r="O167" s="29"/>
-      <c r="P167" s="28"/>
-      <c r="Q167" s="28"/>
-      <c r="R167" s="28"/>
       <c r="S167" s="29"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.15">
@@ -5335,24 +5282,6 @@
       <c r="N201" s="32"/>
       <c r="O201" s="29"/>
       <c r="S201" s="29"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A202" s="28"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="35"/>
-      <c r="J202" s="28"/>
-      <c r="K202" s="28"/>
-      <c r="L202" s="28"/>
-      <c r="M202" s="28"/>
-      <c r="N202" s="32"/>
-      <c r="O202" s="29"/>
-      <c r="S202" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
